--- a/DP2/submissions/DP2.1/DP2-G12-350-1257/DP2/Documentation/ProjectLog-G12-4671-350-1257.xlsx
+++ b/DP2/submissions/DP2.1/DP2-G12-350-1257/DP2/Documentation/ProjectLog-G12-4671-350-1257.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User1\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399D87F9-B285-4D74-9926-08CA44045765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FC3611-6022-4C4D-9DD0-68359347BE44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="uphip+fyQmgTbQWVslgKndYGTCUT2nMCnU8pTyuiPxh9t3MkaNQeLeeV1eDZUH8uYM8JtsIZJzZApwnnbRUEcA==" workbookSaltValue="PVE5+bPUyqyV9jE5EaqSxw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5C666647-60C4-4C14-A5E1-8900F85EBB7F}"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="25">
   <si>
     <t>last  4 digits</t>
   </si>
@@ -420,7 +420,13 @@
     <t>G12</t>
   </si>
   <si>
-    <t>Started Ladner-Fisher adder</t>
+    <t>Started Ladner-Fischer adder</t>
+  </si>
+  <si>
+    <t>Finished Ladner-Fischer adder</t>
+  </si>
+  <si>
+    <t>Finished Kogge-Stone adder</t>
   </si>
 </sst>
 </file>
@@ -1436,7 +1442,7 @@
   <dimension ref="A1:I783"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1570,28 +1576,48 @@
     </row>
     <row r="8" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="31"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="22"/>
+      <c r="B8" s="13">
+        <v>4671</v>
+      </c>
+      <c r="C8" s="21">
+        <v>45974</v>
+      </c>
+      <c r="D8" s="19">
+        <v>0.625</v>
+      </c>
+      <c r="E8" s="22">
+        <v>0.6875</v>
+      </c>
       <c r="F8" s="34"/>
-      <c r="G8" s="16"/>
+      <c r="G8" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="H8" s="26">
         <f>(E8-D8)*24</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="31"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="22"/>
+      <c r="B9" s="13">
+        <v>4671</v>
+      </c>
+      <c r="C9" s="21">
+        <v>45974</v>
+      </c>
+      <c r="D9" s="19">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E9" s="22">
+        <v>0.77083333333333337</v>
+      </c>
       <c r="F9" s="34"/>
-      <c r="G9" s="16"/>
+      <c r="G9" s="16" t="s">
+        <v>24</v>
+      </c>
       <c r="H9" s="26">
         <f t="shared" ref="H9:H72" si="1">(E9-D9)*24</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2508,7 +2534,7 @@
       <c r="F80" s="29"/>
       <c r="H80" s="28">
         <f>SUM(H7:H79)</f>
-        <v>1.2500000000000009</v>
+        <v>4.2500000000000009</v>
       </c>
     </row>
     <row r="81" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
